--- a/service-loans/template/Template_CW_CMA_USL.xlsx
+++ b/service-loans/template/Template_CW_CMA_USL.xlsx
@@ -659,8 +659,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1212,9 +1212,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1410,7 +1410,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1487,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1499,7 +1499,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1570,81 +1570,31 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,21 +1604,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1982,38 +1982,38 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="5" hidden="1" collapsed="1"/>
-    <col min="14" max="15" width="7.5703125" style="5" hidden="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="5" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="7.5703125" style="5" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16384" width="9.140625" style="5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="6" t="s">
         <v>46</v>
       </c>
@@ -2031,60 +2031,60 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
       <c r="N2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
@@ -3146,11 +3146,11 @@
         <v>10</v>
       </c>
       <c r="B48" s="28">
-        <f t="shared" ref="B48:M48" si="9">(ROUND(B40+B44+B46-B42,2))</f>
+        <f>(ROUND(B44+B46,2))</f>
         <v>0</v>
       </c>
       <c r="C48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C48:E48" si="9">(ROUND(C44+C46,2))</f>
         <v>0</v>
       </c>
       <c r="D48" s="28">
@@ -3162,35 +3162,35 @@
         <v>0</v>
       </c>
       <c r="F48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B48:M48" si="10">(ROUND(F40+F44+F46-F42,2))</f>
         <v>0</v>
       </c>
       <c r="G48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3246,51 +3246,51 @@
         <v>8</v>
       </c>
       <c r="B52" s="28">
-        <f t="shared" ref="B52:M52" si="10">(ROUND(B48-B50,2))</f>
+        <f t="shared" ref="B52:M52" si="11">(ROUND(B48-B50,2))</f>
         <v>0</v>
       </c>
       <c r="C52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M52" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3382,47 +3382,47 @@
         <v>0</v>
       </c>
       <c r="C58" s="28">
-        <f t="shared" ref="C58:M58" si="11">(ROUND(C52+C56+C54,2))</f>
+        <f t="shared" ref="C58:M58" si="12">(ROUND(C52+C56+C54,2))</f>
         <v>0</v>
       </c>
       <c r="D58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,51 +3446,51 @@
         <v>102</v>
       </c>
       <c r="B60" s="28">
-        <f t="shared" ref="B60:M60" si="12">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
+        <f t="shared" ref="B60:M60" si="13">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
         <v>0</v>
       </c>
       <c r="C60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M60" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,51 +3546,51 @@
         <v>104</v>
       </c>
       <c r="B64" s="28">
-        <f t="shared" ref="B64:M64" si="13">(ROUND(B60-B62,2))</f>
+        <f t="shared" ref="B64:M64" si="14">(ROUND(B60-B62,2))</f>
         <v>0</v>
       </c>
       <c r="C64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L64" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M64" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3631,51 +3631,51 @@
         <v>7</v>
       </c>
       <c r="B67" s="28">
-        <f t="shared" ref="B67:M67" si="14">B66</f>
+        <f t="shared" ref="B67:M67" si="15">B66</f>
         <v>0</v>
       </c>
       <c r="C67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L67" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M67" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3701,51 +3701,51 @@
         <v>5</v>
       </c>
       <c r="B69" s="28">
-        <f t="shared" ref="B69:M69" si="15">B68</f>
+        <f t="shared" ref="B69:M69" si="16">B68</f>
         <v>0</v>
       </c>
       <c r="C69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M69" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3754,51 +3754,51 @@
         <v>4</v>
       </c>
       <c r="B70" s="28">
-        <f t="shared" ref="B70:M70" si="16">SUM(ROUND(B67-B69,2))</f>
+        <f t="shared" ref="B70:M70" si="17">SUM(ROUND(B67-B69,2))</f>
         <v>0</v>
       </c>
       <c r="C70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M70" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3839,51 +3839,51 @@
         <v>106</v>
       </c>
       <c r="B73" s="28">
-        <f t="shared" ref="B73:M73" si="17">SUM(ROUND(B64+B70-B71,2))</f>
+        <f t="shared" ref="B73:M73" si="18">SUM(ROUND(B64+B70-B71,2))</f>
         <v>0</v>
       </c>
       <c r="C73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M73" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4130,51 +4130,51 @@
         <v>109</v>
       </c>
       <c r="B84" s="28">
-        <f t="shared" ref="B84:M84" si="18">B78-B80</f>
+        <f t="shared" ref="B84:M84" si="19">B78-B80</f>
         <v>0</v>
       </c>
       <c r="C84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L84" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M84" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4198,56 +4198,55 @@
         <v>110</v>
       </c>
       <c r="B86" s="53">
-        <f t="shared" ref="B86:M86" si="19">IFERROR((B84/B78),0)</f>
+        <f t="shared" ref="B86:M86" si="20">IFERROR((B84/B78),0)</f>
         <v>0</v>
       </c>
       <c r="C86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L86" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M86" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jm9Yn1x2xyUW6mK+cJKweeoNmWFv0mcokwBH9XjUpYzJIRnYwFTwBZKHdOIp0qUiS3GQktFTD8c61hjdbD3n5g==" saltValue="d4jlp3azqnyy3MONgPtuUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -4288,21 +4287,21 @@
   <cols>
     <col min="1" max="1" width="46.7109375" style="58" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="58" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="58" hidden="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="58" hidden="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9.140625" style="58" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
@@ -4320,57 +4319,57 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
       <c r="L4" s="1">
         <f>'Operating Stmt.'!L4</f>
         <v>0</v>
@@ -4381,7 +4380,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="126" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="63">
@@ -4434,70 +4433,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="112" t="str">
+      <c r="A6" s="127"/>
+      <c r="B6" s="128" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="128" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="112" t="str">
+      <c r="D6" s="128" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="112" t="str">
+      <c r="E6" s="128" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="112" t="str">
+      <c r="F6" s="128" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="112" t="str">
+      <c r="G6" s="128" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="128" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="112" t="str">
+      <c r="I6" s="128" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="112" t="str">
+      <c r="J6" s="128" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="112" t="str">
+      <c r="K6" s="128" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="112" t="str">
+      <c r="L6" s="128" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="114" t="str">
+      <c r="M6" s="133" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="115"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="134"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -4943,7 +4942,7 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4958,7 +4957,7 @@
       <c r="M33" s="59"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -6120,24 +6119,24 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IWMHzxcwP5R3s4K/NXk7tFG/s7indXlJ+Mhjc7xoO34G+AaJ/1E2RaCEN6y8jCUdoNkppABwUqOUCM1HX5/WgA==" saltValue="Fq5pf4kf/AxEYRJLYXYdDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -6180,16 +6179,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
@@ -6207,57 +6206,57 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
       <c r="L4" s="1">
         <f>'Operating Stmt.'!L4</f>
         <v>0</v>
@@ -6268,7 +6267,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="138" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="96">
@@ -6321,70 +6320,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="112" t="str">
+      <c r="A6" s="139"/>
+      <c r="B6" s="128" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="128" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="112" t="str">
+      <c r="D6" s="128" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="112" t="str">
+      <c r="E6" s="128" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="112" t="str">
+      <c r="F6" s="128" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="112" t="str">
+      <c r="G6" s="128" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="128" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="112" t="str">
+      <c r="I6" s="128" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="112" t="str">
+      <c r="J6" s="128" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="112" t="str">
+      <c r="K6" s="128" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="112" t="str">
+      <c r="L6" s="128" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="114" t="str">
+      <c r="M6" s="133" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="124"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
@@ -8581,7 +8580,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6ozfzw+P2sC9dh9OL7fzWG4sYGlsPg9JNCqqLhQzJEXPZdv99WHj79mM8OYlxTQAo2Mk/nOpThiBTEGdJ0Scdw==" saltValue="uFLdcO0+tzxeQnqTAuAuWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -8598,6 +8596,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">

--- a/service-loans/template/Template_CW_CMA_USL.xlsx
+++ b/service-loans/template/Template_CW_CMA_USL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="5205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -1604,6 +1604,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1620,14 +1636,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1640,14 +1648,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,6 +1655,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1665,10 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1981,12 +1981,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="28">
-        <f t="shared" ref="B48:M48" si="10">(ROUND(F40+F44+F46-F42,2))</f>
+        <f t="shared" ref="F48:M48" si="10">(ROUND(F40+F44+F46-F42,2))</f>
         <v>0</v>
       </c>
       <c r="G48" s="28">
@@ -4292,13 +4292,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="115"/>
       <c r="G1" s="115"/>
       <c r="H1" s="115"/>
@@ -4319,13 +4319,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="116"/>
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
@@ -4353,11 +4353,11 @@
       <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="130" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="63">
@@ -4433,70 +4433,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="128" t="str">
+      <c r="A6" s="131"/>
+      <c r="B6" s="126" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="128" t="str">
+      <c r="C6" s="126" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="128" t="str">
+      <c r="D6" s="126" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="128" t="str">
+      <c r="E6" s="126" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="128" t="str">
+      <c r="F6" s="126" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="128" t="str">
+      <c r="G6" s="126" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="128" t="str">
+      <c r="H6" s="126" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="128" t="str">
+      <c r="I6" s="126" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="128" t="str">
+      <c r="J6" s="126" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="128" t="str">
+      <c r="K6" s="126" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="128" t="str">
+      <c r="L6" s="126" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="133" t="str">
+      <c r="M6" s="124" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
       <c r="E7" s="136"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="134"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -4942,7 +4942,7 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4957,7 +4957,7 @@
       <c r="M33" s="59"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -6119,12 +6119,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IWMHzxcwP5R3s4K/NXk7tFG/s7indXlJ+Mhjc7xoO34G+AaJ/1E2RaCEN6y8jCUdoNkppABwUqOUCM1HX5/WgA==" saltValue="Fq5pf4kf/AxEYRJLYXYdDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -6137,6 +6131,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -6162,12 +6162,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6179,13 +6179,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="115"/>
       <c r="G1" s="115"/>
       <c r="H1" s="115"/>
@@ -6206,13 +6206,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="116"/>
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
@@ -6223,13 +6223,13 @@
       <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="118"/>
       <c r="G3" s="118"/>
       <c r="H3" s="118"/>
@@ -6240,11 +6240,11 @@
       <c r="M3" s="118"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
@@ -6267,7 +6267,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="139" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="96">
@@ -6320,58 +6320,58 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="128" t="str">
+      <c r="A6" s="140"/>
+      <c r="B6" s="126" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="128" t="str">
+      <c r="C6" s="126" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="128" t="str">
+      <c r="D6" s="126" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="128" t="str">
+      <c r="E6" s="126" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="128" t="str">
+      <c r="F6" s="126" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="128" t="str">
+      <c r="G6" s="126" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="128" t="str">
+      <c r="H6" s="126" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="128" t="str">
+      <c r="I6" s="126" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="128" t="str">
+      <c r="J6" s="126" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="128" t="str">
+      <c r="K6" s="126" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="128" t="str">
+      <c r="L6" s="126" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="133" t="str">
+      <c r="M6" s="124" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
@@ -6383,7 +6383,7 @@
       <c r="J7" s="136"/>
       <c r="K7" s="136"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="137"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
@@ -6846,22 +6846,10 @@
       <c r="A29" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="89">
-        <f>'Operating Stmt.'!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="89">
-        <f>'Operating Stmt.'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="89">
-        <f>'Operating Stmt.'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="89">
-        <f>'Operating Stmt.'!E42</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="89">
         <f>'Operating Stmt.'!F42</f>
         <v>0</v>
@@ -6914,22 +6902,10 @@
       <c r="A31" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="89">
-        <f>'Operating Stmt.'!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="89">
-        <f>'Operating Stmt.'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="89">
-        <f>'Operating Stmt.'!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="89">
-        <f>'Operating Stmt.'!E50</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="89">
         <f>'Operating Stmt.'!F50</f>
         <v>0</v>
@@ -8578,8 +8554,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6ozfzw+P2sC9dh9OL7fzWG4sYGlsPg9JNCqqLhQzJEXPZdv99WHj79mM8OYlxTQAo2Mk/nOpThiBTEGdJ0Scdw==" saltValue="uFLdcO0+tzxeQnqTAuAuWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -8596,7 +8572,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
